--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcbd482b5a15e560/UVG/Tercer Semestre/Algoritmos y Estructura de Datos/HT 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{EB10AB50-CC1F-4BFB-B343-E75773C7CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A8ACFB-6251-409C-B556-EFC45EC3B82D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{EB10AB50-CC1F-4BFB-B343-E75773C7CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD1BCE38-77FC-4E4B-8CCA-635F05537897}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3AD1587-E54C-4A72-A035-FC894B195D9C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Procesos</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Memoria 100</t>
+  </si>
+  <si>
+    <t>Memoria 200</t>
   </si>
 </sst>
 </file>
@@ -136,10 +139,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +480,7 @@
   <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,18 +495,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -922,7 +925,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="8"/>
+      <c r="F24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcbd482b5a15e560/UVG/Tercer Semestre/Algoritmos y Estructura de Datos/HT 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcbd482b5a15e560/UVG/Tercer Semestre/Algoritmos y Estructura de Datos/HT 5/Hoja-de-trabajo-5-AED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{EB10AB50-CC1F-4BFB-B343-E75773C7CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD1BCE38-77FC-4E4B-8CCA-635F05537897}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{EB10AB50-CC1F-4BFB-B343-E75773C7CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D922EC0D-44BF-4792-BA17-90FC5ACC3C67}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3AD1587-E54C-4A72-A035-FC894B195D9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Memoria 100" sheetId="1" r:id="rId1"/>
+    <sheet name="Memoria 200" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -127,11 +128,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -141,6 +179,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -158,6 +205,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,462 +528,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CFEB10-59DE-475F-BD1B-1A36F799A0D7}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19.41</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.16</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>24.89</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>100</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5.26</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20.09</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>150</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.98</v>
+      </c>
+      <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4.67</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>23.07</v>
+      </c>
+      <c r="D14" s="5">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>200</v>
+      </c>
+      <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.07</v>
-      </c>
-      <c r="G4" s="2">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4.57</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C15" s="6">
+        <v>4.33</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>200</v>
+      </c>
+      <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>5.05</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4.67</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>19.41</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10.44</v>
-      </c>
-      <c r="G6" s="2">
-        <v>25</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>18.03</v>
-      </c>
-      <c r="J6" s="2">
-        <v>9.19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4.67</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G7" s="3">
-        <v>50</v>
-      </c>
-      <c r="H7" s="3">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>50</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7.16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.98</v>
-      </c>
-      <c r="G8" s="3">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>24.89</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="G9" s="3">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>11.18</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7.85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5.26</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.54</v>
-      </c>
-      <c r="G10" s="4">
-        <v>100</v>
-      </c>
-      <c r="H10" s="4">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4">
-        <v>8.07</v>
-      </c>
-      <c r="J10" s="4">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>6.29</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1.84</v>
-      </c>
-      <c r="G11" s="4">
-        <v>100</v>
-      </c>
-      <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
-        <v>100</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>20.09</v>
-      </c>
-      <c r="E12" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="G12" s="4">
-        <v>100</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>20.05</v>
-      </c>
-      <c r="J12" s="4">
-        <v>11.87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>150</v>
-      </c>
-      <c r="C13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5">
-        <v>6.98</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>150</v>
-      </c>
-      <c r="H13" s="5">
-        <v>10</v>
-      </c>
-      <c r="I13" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <v>150</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4.67</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>150</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
-        <v>4.87</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>150</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>23.07</v>
-      </c>
-      <c r="E15" s="5">
-        <v>7.63</v>
-      </c>
-      <c r="G15" s="5">
-        <v>150</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>24.22</v>
-      </c>
-      <c r="J15" s="5">
-        <v>9.02</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="C16" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>200</v>
       </c>
-      <c r="C16" s="6">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6">
-        <v>4.33</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.82</v>
-      </c>
-      <c r="G16" s="6">
-        <v>200</v>
-      </c>
-      <c r="H16" s="6">
-        <v>10</v>
-      </c>
-      <c r="I16" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="C17" s="6">
-        <v>5</v>
+        <v>24.19</v>
       </c>
       <c r="D17" s="6">
-        <v>5.34</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1.88</v>
-      </c>
-      <c r="G17" s="6">
-        <v>200</v>
-      </c>
-      <c r="H17" s="6">
-        <v>5</v>
-      </c>
-      <c r="I17" s="6">
-        <v>5.53</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>200</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>24.19</v>
-      </c>
-      <c r="E18" s="6">
         <v>8.41</v>
       </c>
-      <c r="G18" s="6">
-        <v>200</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>23.38</v>
-      </c>
-      <c r="J18" s="6">
-        <v>11.85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F24" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAC05F2-880F-48B5-9FB4-313BC2D9CFA5}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4.67</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18.03</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>11.18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>100</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>100</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20.05</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>150</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4.87</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>24.22</v>
+      </c>
+      <c r="D14" s="5">
+        <v>9.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>200</v>
+      </c>
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4.57</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>200</v>
+      </c>
+      <c r="B16" s="6">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5.53</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>200</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>23.38</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="22" documentId="8_{EB10AB50-CC1F-4BFB-B343-E75773C7CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A90B68-FE48-45C1-BF51-28D835D67BC8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3AD1587-E54C-4A72-A035-FC894B195D9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B3AD1587-E54C-4A72-A035-FC894B195D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Memoria 100" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Memoria 100'!$C$2</c15:sqref>
@@ -459,7 +459,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Memoria 100'!$C$3:$C$7</c15:sqref>
@@ -489,7 +489,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Memoria 100'!$C$3:$C$7</c15:sqref>
@@ -518,7 +518,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-30B6-435A-B035-D67F793C87B8}"/>
                   </c:ext>
@@ -6754,6 +6754,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -7073,8 +7077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CFEB10-59DE-475F-BD1B-1A36F799A0D7}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7334,7 +7338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAC05F2-880F-48B5-9FB4-313BC2D9CFA5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
